--- a/data/trans_orig/P1416-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35180</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24812</v>
+        <v>24704</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48977</v>
+        <v>49068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07425496291340139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05237085300561703</v>
+        <v>0.05214313077183656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.10337566620105</v>
+        <v>0.1035682757185518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>31323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22714</v>
+        <v>21195</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45221</v>
+        <v>42045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1021360979370201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07406420040015879</v>
+        <v>0.06911040758687055</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1474546690518794</v>
+        <v>0.1370988762829183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -786,19 +786,19 @@
         <v>66503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52534</v>
+        <v>51498</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84649</v>
+        <v>83785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08521085049671931</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06731122485935884</v>
+        <v>0.06598503099050319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1084607630469085</v>
+        <v>0.1073541783242152</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>438596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424799</v>
+        <v>424708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448964</v>
+        <v>449072</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9257450370865986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8966243337989498</v>
+        <v>0.8964317242814478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9476291469943829</v>
+        <v>0.9478568692281633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>268</v>
@@ -836,19 +836,19 @@
         <v>275357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261459</v>
+        <v>264635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283966</v>
+        <v>285485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8978639020629799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8525453309481208</v>
+        <v>0.8629011237170817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9259357995998413</v>
+        <v>0.9308895924131296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -857,19 +857,19 @@
         <v>713954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>695808</v>
+        <v>696672</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>727923</v>
+        <v>728959</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9147891495032807</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8915392369530915</v>
+        <v>0.8926458216757848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.932688775140641</v>
+        <v>0.9340149690094967</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18727</v>
+        <v>18933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39211</v>
+        <v>39818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07467649361469313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05103666332077224</v>
+        <v>0.05159735465633281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1068618091973546</v>
+        <v>0.1085166096111883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -982,19 +982,19 @@
         <v>52364</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39728</v>
+        <v>39645</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66724</v>
+        <v>66792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1408140071666515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1068357032933275</v>
+        <v>0.106612267236652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1794304904130661</v>
+        <v>0.1796145461407558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -1003,19 +1003,19 @@
         <v>79765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64924</v>
+        <v>65039</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98233</v>
+        <v>97946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.107965950427563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08787797090391215</v>
+        <v>0.08803394810407682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1329633613160955</v>
+        <v>0.1325746620904147</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>339533</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>327723</v>
+        <v>327116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>348207</v>
+        <v>348001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9253235063853069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8931381908026449</v>
+        <v>0.8914833903888116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9489633366792276</v>
+        <v>0.9484026453436669</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -1053,19 +1053,19 @@
         <v>319501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>305141</v>
+        <v>305073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332137</v>
+        <v>332220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8591859928333485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.820569509586934</v>
+        <v>0.8203854538592446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8931642967066725</v>
+        <v>0.8933877327633482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>636</v>
@@ -1074,19 +1074,19 @@
         <v>659034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>640566</v>
+        <v>640853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>673875</v>
+        <v>673760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.892034049572437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8670366386839046</v>
+        <v>0.8674253379095854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9121220290960879</v>
+        <v>0.9119660518959232</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>40667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29878</v>
+        <v>29063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54952</v>
+        <v>54505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07497813922262846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05508661205763841</v>
+        <v>0.05358251762976268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1013141293944486</v>
+        <v>0.1004899172822936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>10117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4988</v>
+        <v>5508</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17505</v>
+        <v>18042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06030038609677559</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02972849324338986</v>
+        <v>0.03282587268225657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1043307544142289</v>
+        <v>0.1075308422036304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>50785</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37980</v>
+        <v>38931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65818</v>
+        <v>65945</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07151043720132058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05348068121600273</v>
+        <v>0.05481922339169559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0926787510857361</v>
+        <v>0.09285733563346436</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>501722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>487437</v>
+        <v>487884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512511</v>
+        <v>513326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9250218607773716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8986858706055513</v>
+        <v>0.8995100827177064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9449133879423613</v>
+        <v>0.9464174823702374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1270,19 +1270,19 @@
         <v>157665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150277</v>
+        <v>149740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162794</v>
+        <v>162274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9396996139032244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8956692455857709</v>
+        <v>0.8924691577963697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9702715067566101</v>
+        <v>0.967174127317744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -1291,19 +1291,19 @@
         <v>659386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644353</v>
+        <v>644226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>672191</v>
+        <v>671240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9284895627986794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.907321248914264</v>
+        <v>0.9071426643665358</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9465193187839974</v>
+        <v>0.9451807766083045</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>74147</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58449</v>
+        <v>57318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91874</v>
+        <v>91781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05987630550968812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04719996180449391</v>
+        <v>0.04628640633785481</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07419132401977233</v>
+        <v>0.07411689928095559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -1416,19 +1416,19 @@
         <v>71806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55080</v>
+        <v>56326</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88686</v>
+        <v>89342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1005287753527808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0771123413062612</v>
+        <v>0.07885638936675687</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1241610548459968</v>
+        <v>0.1250787967372123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1437,19 +1437,19 @@
         <v>145953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124028</v>
+        <v>123931</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173219</v>
+        <v>169555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07474733359026908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06351893689452313</v>
+        <v>0.06346904868333507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08871113696326852</v>
+        <v>0.08683456175147834</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1164187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1146460</v>
+        <v>1146553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1179885</v>
+        <v>1181016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9401236944903119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258086759802278</v>
+        <v>0.9258831007190446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9528000381955061</v>
+        <v>0.9537135936621453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>625</v>
@@ -1487,19 +1487,19 @@
         <v>642479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>625599</v>
+        <v>624943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659205</v>
+        <v>657959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8994712246472192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8758389451540032</v>
+        <v>0.8749212032627878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9228876586937388</v>
+        <v>0.9211436106332431</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -1508,19 +1508,19 @@
         <v>1806667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1779401</v>
+        <v>1783065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1828592</v>
+        <v>1828689</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9252526664097309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9112888630367314</v>
+        <v>0.9131654382485215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9364810631054767</v>
+        <v>0.9365309513166649</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>19144</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12455</v>
+        <v>12611</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30020</v>
+        <v>29248</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05461100610300624</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0355288886012519</v>
+        <v>0.03597367985389819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08563668849809836</v>
+        <v>0.08343317409154707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1633,19 +1633,19 @@
         <v>60031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45812</v>
+        <v>45219</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77172</v>
+        <v>75383</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1055485992834228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08054786757405455</v>
+        <v>0.07950629044452957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.135685740699932</v>
+        <v>0.1325415718334742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -1654,19 +1654,19 @@
         <v>79175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62335</v>
+        <v>62856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97360</v>
+        <v>97941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08612479464911151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06780647286360954</v>
+        <v>0.0683734712657651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1059053783510309</v>
+        <v>0.1065374545384039</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>331411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>320535</v>
+        <v>321307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>338100</v>
+        <v>337944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9453889938969937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9143633115019019</v>
+        <v>0.9165668259084534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9644711113987482</v>
+        <v>0.9640263201461019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -1704,19 +1704,19 @@
         <v>508721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491580</v>
+        <v>493369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>522940</v>
+        <v>523533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8944514007165772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.864314259300068</v>
+        <v>0.8674584281665257</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9194521324259455</v>
+        <v>0.9204937095554704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>803</v>
@@ -1725,19 +1725,19 @@
         <v>840132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>821947</v>
+        <v>821366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>856972</v>
+        <v>856451</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9138752053508885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8940946216489688</v>
+        <v>0.8934625454615962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9321935271363905</v>
+        <v>0.9316265287342352</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>22739</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15225</v>
+        <v>15043</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33398</v>
+        <v>33352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07625428611848895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05105584874927899</v>
+        <v>0.05044531336728668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1119995012876577</v>
+        <v>0.111843417143424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1850,19 +1850,19 @@
         <v>98388</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81535</v>
+        <v>80126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118154</v>
+        <v>117588</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07878870199136298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06529298425412867</v>
+        <v>0.06416446505233341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09461715850422223</v>
+        <v>0.0941635064722483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -1871,19 +1871,19 @@
         <v>121127</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100505</v>
+        <v>101733</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145754</v>
+        <v>144756</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07830015411668459</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0649694007424557</v>
+        <v>0.06576329123501888</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09421980406354459</v>
+        <v>0.09357466918539632</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>275462</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264803</v>
+        <v>264849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282976</v>
+        <v>283158</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9237457138815111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8880004987123423</v>
+        <v>0.8881565828565762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9489441512507211</v>
+        <v>0.9495546866327134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1139</v>
@@ -1921,19 +1921,19 @@
         <v>1150372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1130606</v>
+        <v>1131172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1167225</v>
+        <v>1168634</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.921211298008637</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9053828414957779</v>
+        <v>0.9058364935277518</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9347070157458713</v>
+        <v>0.9358355349476666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1422</v>
@@ -1942,19 +1942,19 @@
         <v>1425833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1401206</v>
+        <v>1402204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1446455</v>
+        <v>1445227</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9216998458833154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9057801959364555</v>
+        <v>0.9064253308146037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9350305992575444</v>
+        <v>0.9342367087649813</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>219279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186220</v>
+        <v>192976</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248759</v>
+        <v>245740</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06705392533451345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05694483848211606</v>
+        <v>0.05901059650984843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0760686321929762</v>
+        <v>0.07514542110492767</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>315</v>
@@ -2067,19 +2067,19 @@
         <v>324030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>292196</v>
+        <v>291094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>358320</v>
+        <v>361476</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09591997533696495</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08649661333402134</v>
+        <v>0.08617018443894835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1060708154410811</v>
+        <v>0.1070049586493937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>527</v>
@@ -2088,19 +2088,19 @@
         <v>543309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>499369</v>
+        <v>504875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>592394</v>
+        <v>591456</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08172126755234252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0751121784626089</v>
+        <v>0.0759403014160635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08910447043338954</v>
+        <v>0.0889632743825236</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3050911</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3021431</v>
+        <v>3024450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3083970</v>
+        <v>3077214</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9329460746654865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9239313678070238</v>
+        <v>0.9248545788950723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9430551615178838</v>
+        <v>0.9409894034901511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2981</v>
@@ -2138,19 +2138,19 @@
         <v>3054094</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3019804</v>
+        <v>3016648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3085928</v>
+        <v>3087030</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9040800246630351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8939291845589195</v>
+        <v>0.8929950413506063</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9135033866659789</v>
+        <v>0.9138298155610518</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5976</v>
@@ -2159,19 +2159,19 @@
         <v>6105005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6055920</v>
+        <v>6056858</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6148945</v>
+        <v>6143439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9182787324476575</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9108955295666105</v>
+        <v>0.9110367256174766</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.924887821537391</v>
+        <v>0.9240596985839369</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>24193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16602</v>
+        <v>15543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34431</v>
+        <v>34074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05533390679214562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03797259766215964</v>
+        <v>0.03555130306919831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07875244839200522</v>
+        <v>0.07793493116478048</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2526,19 +2526,19 @@
         <v>31371</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21145</v>
+        <v>21770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42048</v>
+        <v>44341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09976365837799864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06724443046356464</v>
+        <v>0.06923115598825967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1337162091166027</v>
+        <v>0.1410095035256582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -2547,19 +2547,19 @@
         <v>55564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42700</v>
+        <v>42943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73016</v>
+        <v>72083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07392080890270129</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05680665646851672</v>
+        <v>0.05713071308256618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09713956718371997</v>
+        <v>0.0958980652596598</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>413018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402780</v>
+        <v>403137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420609</v>
+        <v>421668</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9446660932078543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9212475516079948</v>
+        <v>0.9220650688352194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9620274023378402</v>
+        <v>0.9644486969308016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -2597,19 +2597,19 @@
         <v>283083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272406</v>
+        <v>270113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293309</v>
+        <v>292684</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9002363416220014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8662837908833975</v>
+        <v>0.8589904964743419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9327555695364353</v>
+        <v>0.9307688440117404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>632</v>
@@ -2618,19 +2618,19 @@
         <v>696101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678649</v>
+        <v>679582</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>708965</v>
+        <v>708722</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9260791910972987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.90286043281628</v>
+        <v>0.9041019347403401</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9431933435314831</v>
+        <v>0.9428692869174338</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>22638</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14215</v>
+        <v>13813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33576</v>
+        <v>34626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05405535262240722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03394270323302475</v>
+        <v>0.03298203074061164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08017362156367262</v>
+        <v>0.0826787189636471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -2743,19 +2743,19 @@
         <v>37695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27062</v>
+        <v>26893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51204</v>
+        <v>52721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1115194029033722</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08006308006284188</v>
+        <v>0.07956386949788113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1514871160770689</v>
+        <v>0.1559742601281735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2764,19 +2764,19 @@
         <v>60333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47056</v>
+        <v>45719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79624</v>
+        <v>78335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07972036318918478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06217719531037851</v>
+        <v>0.06040999887612383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1052108341749546</v>
+        <v>0.1035072090601278</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>396159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385221</v>
+        <v>384171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>404582</v>
+        <v>404984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9459446473775928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9198263784363273</v>
+        <v>0.9173212810363529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9660572967669752</v>
+        <v>0.9670179692593885</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -2814,19 +2814,19 @@
         <v>300316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286807</v>
+        <v>285290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>310949</v>
+        <v>311118</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8884805970966277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8485128839229313</v>
+        <v>0.8440257398718266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9199369199371582</v>
+        <v>0.9204361305021189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>626</v>
@@ -2835,19 +2835,19 @@
         <v>696475</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677184</v>
+        <v>678473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709752</v>
+        <v>711089</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9202796368108153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8947891658250452</v>
+        <v>0.8964927909398722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9378228046896213</v>
+        <v>0.9395900011238764</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>36168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25234</v>
+        <v>25282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50100</v>
+        <v>51204</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05755686380151245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0401567413364534</v>
+        <v>0.04023211835000046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07972715900238998</v>
+        <v>0.08148401310060555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -2960,19 +2960,19 @@
         <v>19262</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11812</v>
+        <v>11276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28622</v>
+        <v>27847</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07404871736655665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0454071267081313</v>
+        <v>0.04334773897032715</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1100306856967905</v>
+        <v>0.1070513607869507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2981,19 +2981,19 @@
         <v>55431</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42216</v>
+        <v>42305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73143</v>
+        <v>72666</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06238512398448892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04751287090083012</v>
+        <v>0.04761329372044099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08232038646944226</v>
+        <v>0.0817825920136095</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>592225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>578293</v>
+        <v>577189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>603159</v>
+        <v>603111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9424431361984875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9202728409976103</v>
+        <v>0.918515986899395</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598432586635469</v>
+        <v>0.9597678816499998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -3031,19 +3031,19 @@
         <v>240867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>231507</v>
+        <v>232282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248317</v>
+        <v>248853</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9259512826334434</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8899693143032096</v>
+        <v>0.8929486392130493</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9545928732918687</v>
+        <v>0.9566522610296729</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>783</v>
@@ -3052,19 +3052,19 @@
         <v>833091</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>815379</v>
+        <v>815856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>846306</v>
+        <v>846217</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9376148760155111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9176796135305582</v>
+        <v>0.9182174079863903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9524871290991699</v>
+        <v>0.9523867062795589</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>53466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40769</v>
+        <v>39148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69992</v>
+        <v>71108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04613037208949123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0351756524669623</v>
+        <v>0.03377729913313767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06038912905858317</v>
+        <v>0.0613521855678285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -3177,19 +3177,19 @@
         <v>66179</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50617</v>
+        <v>50760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84020</v>
+        <v>81964</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.086321027710046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06602294345345869</v>
+        <v>0.066209031986998</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1095921923712845</v>
+        <v>0.1069110336365057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -3198,19 +3198,19 @@
         <v>119644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96648</v>
+        <v>97234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142435</v>
+        <v>142763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06213130588196864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05018946753471688</v>
+        <v>0.05049375482937802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07396659247933016</v>
+        <v>0.07413693006487621</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1105543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1089017</v>
+        <v>1087901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1118240</v>
+        <v>1119861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9538696279105088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9396108709414168</v>
+        <v>0.9386478144321714</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9648243475330375</v>
+        <v>0.9662227008668621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>651</v>
@@ -3248,19 +3248,19 @@
         <v>700478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>682637</v>
+        <v>684693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>716040</v>
+        <v>715897</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.913678972289954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8904078076287153</v>
+        <v>0.8930889663634947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9339770565465412</v>
+        <v>0.9337909680130021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1684</v>
@@ -3269,19 +3269,19 @@
         <v>1806023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1783232</v>
+        <v>1782904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1829019</v>
+        <v>1828433</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9378686941180313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.92603340752067</v>
+        <v>0.9258630699351239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9498105324652831</v>
+        <v>0.9495062451706221</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>20125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13383</v>
+        <v>12793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32233</v>
+        <v>30413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0394150648170976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0262111828819286</v>
+        <v>0.02505486028063735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06312829222164044</v>
+        <v>0.05956442197871764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3394,19 +3394,19 @@
         <v>34349</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24158</v>
+        <v>23297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47721</v>
+        <v>46953</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04518183670066615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03177651920069591</v>
+        <v>0.03064444027926601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06277030704604215</v>
+        <v>0.06176007000943537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -3415,19 +3415,19 @@
         <v>54475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41007</v>
+        <v>41503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71635</v>
+        <v>69150</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04286487603583169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03226779665873985</v>
+        <v>0.03265803350338423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05636840202300753</v>
+        <v>0.05441268019961579</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>490471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>478363</v>
+        <v>480183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497213</v>
+        <v>497803</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9605849351829024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9368717077783596</v>
+        <v>0.9404355780212824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9737888171180714</v>
+        <v>0.9749451397193627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>670</v>
@@ -3465,19 +3465,19 @@
         <v>725897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>712525</v>
+        <v>713293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>736088</v>
+        <v>736949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9548181632993339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9372296929539579</v>
+        <v>0.9382399299905647</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9682234807993041</v>
+        <v>0.9693555597207343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1138</v>
@@ -3486,19 +3486,19 @@
         <v>1216368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1199208</v>
+        <v>1201693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1229836</v>
+        <v>1229340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9571351239641683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9436315979769924</v>
+        <v>0.9455873198003838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9677322033412602</v>
+        <v>0.9673419664966154</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>19181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11768</v>
+        <v>11371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30489</v>
+        <v>28775</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0718708894353096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04409360973345978</v>
+        <v>0.04260724129590347</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1142416362809325</v>
+        <v>0.107818223667515</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -3611,19 +3611,19 @@
         <v>71335</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57901</v>
+        <v>54632</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90699</v>
+        <v>88010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06430320250460496</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05219367848474037</v>
+        <v>0.04924648878210187</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08175884579453127</v>
+        <v>0.07933428198129705</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -3632,19 +3632,19 @@
         <v>90516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72821</v>
+        <v>72651</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110200</v>
+        <v>109694</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06577074368259694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05291317674369313</v>
+        <v>0.05278995889744544</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08007366010608052</v>
+        <v>0.07970592504978305</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>247701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236393</v>
+        <v>238107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255114</v>
+        <v>255511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9281291105646904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8857583637190675</v>
+        <v>0.8921817763324849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9559063902665401</v>
+        <v>0.9573927587040965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>976</v>
@@ -3682,19 +3682,19 @@
         <v>1038016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1018652</v>
+        <v>1021341</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1051450</v>
+        <v>1054719</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.935696797495395</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9182411542054688</v>
+        <v>0.9206657180187031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9478063215152597</v>
+        <v>0.9507535112178982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1223</v>
@@ -3703,19 +3703,19 @@
         <v>1285717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1266033</v>
+        <v>1266539</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1303412</v>
+        <v>1303582</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9342292563174031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9199263398939195</v>
+        <v>0.9202940749502169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9470868232563068</v>
+        <v>0.9472100411025541</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>175771</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150382</v>
+        <v>148453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205384</v>
+        <v>201664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0513816506875204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04395987218149616</v>
+        <v>0.04339610384977195</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0600383485965906</v>
+        <v>0.05895068366042179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -3828,19 +3828,19 @@
         <v>260191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227603</v>
+        <v>229535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>297265</v>
+        <v>293293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07331698609046949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06413420183935066</v>
+        <v>0.06467866334174122</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08376384395134491</v>
+        <v>0.08264442663210565</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>407</v>
@@ -3849,19 +3849,19 @@
         <v>435962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>396506</v>
+        <v>393475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>476548</v>
+        <v>478398</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06255068090486474</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05688959705808123</v>
+        <v>0.05645477702303252</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06837392969196023</v>
+        <v>0.06863927143352629</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3245117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3215504</v>
+        <v>3219224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3270506</v>
+        <v>3272435</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9486183493124796</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9399616514034094</v>
+        <v>0.9410493163395783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9560401278185038</v>
+        <v>0.9566038961502283</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3046</v>
@@ -3899,19 +3899,19 @@
         <v>3288659</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3251585</v>
+        <v>3255557</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3321247</v>
+        <v>3319315</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9266830139095306</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9162361560486552</v>
+        <v>0.9173555733678946</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9358657981606494</v>
+        <v>0.9353213366582592</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6086</v>
@@ -3920,19 +3920,19 @@
         <v>6533776</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6493190</v>
+        <v>6491340</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6573232</v>
+        <v>6576263</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9374493190951353</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9316260703080398</v>
+        <v>0.9313607285664737</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9431104029419187</v>
+        <v>0.9435452229769675</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>25843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17255</v>
+        <v>16700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37426</v>
+        <v>39274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06022740330980809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04021368608882056</v>
+        <v>0.0389184045380745</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08722035002042489</v>
+        <v>0.09152771574766019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4287,19 +4287,19 @@
         <v>34754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24804</v>
+        <v>24512</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47057</v>
+        <v>47213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1001396157186135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07147053260934295</v>
+        <v>0.07062889401821336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1355898982223372</v>
+        <v>0.1360401468102689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -4308,19 +4308,19 @@
         <v>60597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45788</v>
+        <v>46445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76390</v>
+        <v>77028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07807419087554794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05899345834861575</v>
+        <v>0.05984107338287863</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09842251175750975</v>
+        <v>0.09924457841714311</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>403249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391666</v>
+        <v>389818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>411837</v>
+        <v>412392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9397725966901919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9127796499795759</v>
+        <v>0.9084722842523388</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9597863139111795</v>
+        <v>0.9610815954619254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>300</v>
@@ -4358,19 +4358,19 @@
         <v>312301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299998</v>
+        <v>299842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>322251</v>
+        <v>322543</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8998603842813865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8644101017776626</v>
+        <v>0.8639598531897305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.928529467390657</v>
+        <v>0.9293711059817863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>673</v>
@@ -4379,19 +4379,19 @@
         <v>715550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>699757</v>
+        <v>699119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730359</v>
+        <v>729702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9219258091244521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9015774882424903</v>
+        <v>0.900755421582857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9410065416513842</v>
+        <v>0.9401589266171216</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>21067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13272</v>
+        <v>13346</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31402</v>
+        <v>31292</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05584645615156653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03518386398430146</v>
+        <v>0.03537939702385828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08324308406468668</v>
+        <v>0.08295274841208887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -4504,19 +4504,19 @@
         <v>37335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26840</v>
+        <v>25884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50941</v>
+        <v>50402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1002890923122324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07209817943616305</v>
+        <v>0.0695287484175133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1368376819213486</v>
+        <v>0.1353912270813007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4525,19 +4525,19 @@
         <v>58402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45736</v>
+        <v>44809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76026</v>
+        <v>75187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07792090525941738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06102219940115587</v>
+        <v>0.0597845558298231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1014360429319002</v>
+        <v>0.1003166511834238</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>356160</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345825</v>
+        <v>345935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363955</v>
+        <v>363881</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9441535438484334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9167569159353133</v>
+        <v>0.917047251587911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9648161360156985</v>
+        <v>0.9646206029761417</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -4575,19 +4575,19 @@
         <v>334938</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321332</v>
+        <v>321871</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345433</v>
+        <v>346389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8997109076877676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8631623180786514</v>
+        <v>0.8646087729186993</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.927901820563837</v>
+        <v>0.9304712515824867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -4596,19 +4596,19 @@
         <v>691098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673474</v>
+        <v>674313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703764</v>
+        <v>704691</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9220790947405826</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8985639570680998</v>
+        <v>0.8996833488165762</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9389778005988445</v>
+        <v>0.9402154441701769</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>22973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14988</v>
+        <v>15083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34057</v>
+        <v>34925</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04401654048396758</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02871763238848347</v>
+        <v>0.02889908460069942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06525450027764068</v>
+        <v>0.06691661724154879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4721,19 +4721,19 @@
         <v>18576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11195</v>
+        <v>11067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28247</v>
+        <v>27900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1118224601122233</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06738689687751381</v>
+        <v>0.066620494335664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1700376553630195</v>
+        <v>0.1679499901006284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -4742,19 +4742,19 @@
         <v>41549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31764</v>
+        <v>30610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57308</v>
+        <v>54837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06038792425419741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04616669361933434</v>
+        <v>0.04448917430805428</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0832927027713761</v>
+        <v>0.07970117779975244</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>498941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>487857</v>
+        <v>486989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>506926</v>
+        <v>506831</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9559834595160325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9347454997223592</v>
+        <v>0.9330833827584517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9712823676115165</v>
+        <v>0.9711009153993005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -4792,19 +4792,19 @@
         <v>147547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>137876</v>
+        <v>138223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154928</v>
+        <v>155056</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8881775398877767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8299623446369805</v>
+        <v>0.8320500098993715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9326131031224858</v>
+        <v>0.933379505664336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>615</v>
@@ -4813,19 +4813,19 @@
         <v>646487</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630728</v>
+        <v>633199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656272</v>
+        <v>657426</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9396120757458026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.916707297228624</v>
+        <v>0.9202988222002476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9538333063806657</v>
+        <v>0.9555108256919458</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>40691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29994</v>
+        <v>29873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53885</v>
+        <v>55788</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03539467060019666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02608968087792144</v>
+        <v>0.0259850533866227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04687131556634715</v>
+        <v>0.04852647885708854</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -4938,19 +4938,19 @@
         <v>65052</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50677</v>
+        <v>50734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82010</v>
+        <v>82148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07876740638256507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06136145620542878</v>
+        <v>0.06143022182631642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09930018505243009</v>
+        <v>0.09946804147207691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -4959,19 +4959,19 @@
         <v>105743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86984</v>
+        <v>85979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127340</v>
+        <v>127328</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0535269092163505</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04403108679658908</v>
+        <v>0.04352226411337033</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06445919903111832</v>
+        <v>0.06445285977217267</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1108947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1095753</v>
+        <v>1093850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1119644</v>
+        <v>1119765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9646053293998034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9531286844336528</v>
+        <v>0.9514735211429119</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9739103191220787</v>
+        <v>0.9740149466133774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>735</v>
@@ -5009,19 +5009,19 @@
         <v>760824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>743866</v>
+        <v>743728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>775199</v>
+        <v>775142</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9212325936174349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9006998149475702</v>
+        <v>0.9005319585279231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9386385437945712</v>
+        <v>0.9385697781736836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1798</v>
@@ -5030,19 +5030,19 @@
         <v>1869771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1848174</v>
+        <v>1848186</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1888530</v>
+        <v>1889535</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9464730907836495</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9355408009688817</v>
+        <v>0.9355471402278274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9559689132034112</v>
+        <v>0.9564777358866299</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>27817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18810</v>
+        <v>18255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42730</v>
+        <v>40506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04481556992369545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03030413693960927</v>
+        <v>0.02941064569763632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06884040503202614</v>
+        <v>0.06525852051749054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5155,19 +5155,19 @@
         <v>52437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39213</v>
+        <v>39872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69940</v>
+        <v>67677</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.071028728113072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05311644101145691</v>
+        <v>0.05400946663737972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09473880110559559</v>
+        <v>0.09167349963834066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -5176,19 +5176,19 @@
         <v>80254</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63994</v>
+        <v>64741</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99093</v>
+        <v>101239</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05905576272246749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04709066136636415</v>
+        <v>0.04764058857970218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07291846324737435</v>
+        <v>0.07449774679215861</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>592889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>577976</v>
+        <v>580200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>601896</v>
+        <v>602451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9551844300763045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.931159594967974</v>
+        <v>0.9347414794825093</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9696958630603908</v>
+        <v>0.9705893543023624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>650</v>
@@ -5226,19 +5226,19 @@
         <v>685807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>668304</v>
+        <v>670567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>699031</v>
+        <v>698372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.928971271886928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9052611988944053</v>
+        <v>0.9083265003616595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9468835589885433</v>
+        <v>0.9459905333626204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1220</v>
@@ -5247,19 +5247,19 @@
         <v>1278696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1259857</v>
+        <v>1257711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1294956</v>
+        <v>1294209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9409442372775325</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9270815367526257</v>
+        <v>0.9255022532078416</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9529093386336359</v>
+        <v>0.9523594114202979</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>29078</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20270</v>
+        <v>19629</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40000</v>
+        <v>41039</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.101265553618386</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07059207540128878</v>
+        <v>0.06836040090574641</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1393040864258994</v>
+        <v>0.1429218509874989</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -5372,19 +5372,19 @@
         <v>72464</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57206</v>
+        <v>57665</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90475</v>
+        <v>91714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06697083668972065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05286909647082124</v>
+        <v>0.05329365336135763</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08361618866746826</v>
+        <v>0.08476099760582484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -5393,19 +5393,19 @@
         <v>101542</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83866</v>
+        <v>84305</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122786</v>
+        <v>121244</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07416319523660315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06125285562707788</v>
+        <v>0.06157414279871694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08967941472303675</v>
+        <v>0.08855257070426922</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>258067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247145</v>
+        <v>246106</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266875</v>
+        <v>267516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.898734446381614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8606959135741005</v>
+        <v>0.8570781490125012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9294079245987111</v>
+        <v>0.9316395990942536</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>925</v>
@@ -5443,19 +5443,19 @@
         <v>1009561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>991550</v>
+        <v>990311</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1024819</v>
+        <v>1024360</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9330291633102793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9163838113325318</v>
+        <v>0.9152390023941751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9471309035291787</v>
+        <v>0.9467063466386423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1169</v>
@@ -5464,19 +5464,19 @@
         <v>1267628</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1246384</v>
+        <v>1247926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1285304</v>
+        <v>1284865</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9258368047633968</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9103205852769634</v>
+        <v>0.9114474292957307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9387471443729222</v>
+        <v>0.9384258572012831</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>167469</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145430</v>
+        <v>145466</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>196661</v>
+        <v>197434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04946330243432197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04295392096851707</v>
+        <v>0.04296460801273935</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05808537761915682</v>
+        <v>0.05831380260086038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>265</v>
@@ -5589,19 +5589,19 @@
         <v>280618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>249050</v>
+        <v>249137</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>317277</v>
+        <v>313021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07945923646212663</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07052046321241077</v>
+        <v>0.07054513460954809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08983964430208341</v>
+        <v>0.08863452737154714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>425</v>
@@ -5610,19 +5610,19 @@
         <v>448087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>411538</v>
+        <v>410385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>492783</v>
+        <v>489490</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06477754938674907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05949385540950261</v>
+        <v>0.05932723281827371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07123908883611005</v>
+        <v>0.07076303262384576</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3218253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3189061</v>
+        <v>3188288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3240292</v>
+        <v>3240256</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.950536697565678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9419146223808436</v>
+        <v>0.9416861973991391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.957046079031483</v>
+        <v>0.9570353919872605</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3061</v>
@@ -5660,19 +5660,19 @@
         <v>3250978</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3214319</v>
+        <v>3218575</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3282546</v>
+        <v>3282459</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9205407635378734</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9101603556979165</v>
+        <v>0.9113654726284532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9294795367875892</v>
+        <v>0.9294548653904521</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6125</v>
@@ -5681,19 +5681,19 @@
         <v>6469231</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6424535</v>
+        <v>6427828</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6505780</v>
+        <v>6506933</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9352224506132509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.92876091116389</v>
+        <v>0.9292369673761544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9405061445904974</v>
+        <v>0.9406727671817263</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>51529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38257</v>
+        <v>38152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68760</v>
+        <v>68951</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09377628296884737</v>
+        <v>0.09377628296884739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06962220844115607</v>
+        <v>0.06943230263089115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1251341893056336</v>
+        <v>0.1254806846296411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -6048,19 +6048,19 @@
         <v>76695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63695</v>
+        <v>62630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91383</v>
+        <v>90622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1576416831403497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1309198779047168</v>
+        <v>0.128731641997466</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1878308014314996</v>
+        <v>0.1862681969398505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -6069,19 +6069,19 @@
         <v>128224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110395</v>
+        <v>109818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151653</v>
+        <v>151690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1237679255730229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1065586398684555</v>
+        <v>0.1060007636082738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1463819309678666</v>
+        <v>0.1464179932054738</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>497962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480731</v>
+        <v>480540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>511234</v>
+        <v>511339</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9062237170311525</v>
+        <v>0.9062237170311527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8748658106943662</v>
+        <v>0.874519315370359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9303777915588434</v>
+        <v>0.9305676973691088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>578</v>
@@ -6119,19 +6119,19 @@
         <v>409821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>395133</v>
+        <v>395894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422821</v>
+        <v>423886</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8423583168596502</v>
+        <v>0.8423583168596503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8121691985685003</v>
+        <v>0.8137318030601496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8690801220952831</v>
+        <v>0.871268358002534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1085</v>
@@ -6140,19 +6140,19 @@
         <v>907783</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884354</v>
+        <v>884317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>925612</v>
+        <v>926189</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8762320744269771</v>
+        <v>0.876232074426977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8536180690321332</v>
+        <v>0.8535820067945252</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8934413601315445</v>
+        <v>0.8939992363917261</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>46732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35091</v>
+        <v>34878</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63941</v>
+        <v>61424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.096898247099336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07276039519692272</v>
+        <v>0.07231953275212821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1325817879300651</v>
+        <v>0.1273629711498686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -6265,19 +6265,19 @@
         <v>55821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45325</v>
+        <v>45056</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69083</v>
+        <v>68236</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1323783106250029</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1074869825480365</v>
+        <v>0.1068496500088962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1638273681425884</v>
+        <v>0.1618189024812104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -6286,19 +6286,19 @@
         <v>102553</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85113</v>
+        <v>86670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121305</v>
+        <v>122325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1134491174714519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09415641583200274</v>
+        <v>0.09587871356175888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1341934515715342</v>
+        <v>0.1353218155046038</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>435544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418335</v>
+        <v>420852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447185</v>
+        <v>447398</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9031017529006641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8674182120699352</v>
+        <v>0.8726370288501314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9272396048030772</v>
+        <v>0.9276804672478716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>508</v>
@@ -6336,19 +6336,19 @@
         <v>365860</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352598</v>
+        <v>353445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>376356</v>
+        <v>376625</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8676216893749972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8361726318574122</v>
+        <v>0.8381810975187896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8925130174519635</v>
+        <v>0.8931503499911038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -6357,19 +6357,19 @@
         <v>801404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>782652</v>
+        <v>781632</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>818844</v>
+        <v>817287</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8865508825285481</v>
+        <v>0.8865508825285482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8658065484284659</v>
+        <v>0.8646781844953962</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9058435841679975</v>
+        <v>0.904121286438241</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>56836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42596</v>
+        <v>44118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72706</v>
+        <v>73558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1210189716379281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09069905703378989</v>
+        <v>0.09393888193205951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1548095991902831</v>
+        <v>0.1566241621809449</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -6482,19 +6482,19 @@
         <v>25999</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19022</v>
+        <v>19150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35200</v>
+        <v>35062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1388705704672481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1016030985311382</v>
+        <v>0.1022895741107142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1880167118552002</v>
+        <v>0.1872820830231302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -6503,19 +6503,19 @@
         <v>82835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68097</v>
+        <v>67606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100401</v>
+        <v>99498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1261069357280652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036706513524382</v>
+        <v>0.1029229081762383</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1528503080655869</v>
+        <v>0.1514745068034771</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>412809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396939</v>
+        <v>396087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427049</v>
+        <v>425527</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8789810283620718</v>
+        <v>0.8789810283620719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8451904008097167</v>
+        <v>0.843375837819055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9093009429662099</v>
+        <v>0.9060611180679404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -6553,19 +6553,19 @@
         <v>161216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152015</v>
+        <v>152153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168193</v>
+        <v>168065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8611294295327518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8119832881447999</v>
+        <v>0.8127179169768698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8983969014688619</v>
+        <v>0.8977104258892857</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>678</v>
@@ -6574,19 +6574,19 @@
         <v>574025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>556459</v>
+        <v>557362</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>588763</v>
+        <v>589254</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8738930642719348</v>
+        <v>0.8738930642719349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8471496919344129</v>
+        <v>0.8485254931965229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8963293486475616</v>
+        <v>0.8970770918237614</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>90258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70941</v>
+        <v>72548</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111420</v>
+        <v>113869</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07974396097649074</v>
+        <v>0.07974396097649072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0626773812545314</v>
+        <v>0.06409693616623933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09844112966773168</v>
+        <v>0.1006050886218123</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -6699,19 +6699,19 @@
         <v>103605</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87624</v>
+        <v>87466</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123091</v>
+        <v>122247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1210762690398918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1024007129523043</v>
+        <v>0.1022154188912491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1438479610722502</v>
+        <v>0.1428617358657673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -6720,19 +6720,19 @@
         <v>193863</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168955</v>
+        <v>169098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221030</v>
+        <v>223765</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09753882803471139</v>
+        <v>0.09753882803471138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08500702550148298</v>
+        <v>0.08507876881126972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1112077238486241</v>
+        <v>0.1125836927506659</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1041585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1020423</v>
+        <v>1017974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1060902</v>
+        <v>1059295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9202560390235092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9015588703322684</v>
+        <v>0.8993949113781867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9373226187454687</v>
+        <v>0.9359030638337603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1084</v>
@@ -6770,19 +6770,19 @@
         <v>752095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>732609</v>
+        <v>733453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>768076</v>
+        <v>768234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8789237309601083</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8561520389277503</v>
+        <v>0.8571382641342329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8975992870476962</v>
+        <v>0.8977845811087509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2118</v>
@@ -6791,19 +6791,19 @@
         <v>1793680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1766513</v>
+        <v>1763778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1818588</v>
+        <v>1818445</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9024611719652885</v>
+        <v>0.9024611719652884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8887922761513759</v>
+        <v>0.8874163072493341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9149929744985168</v>
+        <v>0.9149212311887303</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>56570</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42002</v>
+        <v>41806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75579</v>
+        <v>76950</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.099774951229099</v>
+        <v>0.09977495122909899</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07407988380040927</v>
+        <v>0.07373561456023421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1333019914914172</v>
+        <v>0.1357194295995885</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -6916,19 +6916,19 @@
         <v>95149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79025</v>
+        <v>81032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111375</v>
+        <v>110834</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1150380389015754</v>
+        <v>0.1150380389015755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09554372857205136</v>
+        <v>0.09797084063189242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1346562547349628</v>
+        <v>0.1340022737515892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>191</v>
@@ -6937,19 +6937,19 @@
         <v>151719</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129148</v>
+        <v>131563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174463</v>
+        <v>176883</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1088305136845075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09263975678920716</v>
+        <v>0.09437241240896198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1251451792353183</v>
+        <v>0.1268815084581468</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>510406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491397</v>
+        <v>490026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>524974</v>
+        <v>525170</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.900225048770901</v>
+        <v>0.9002250487709008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8666980085085821</v>
+        <v>0.8642805704004114</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9259201161995906</v>
+        <v>0.9262643854397659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1142</v>
@@ -6987,19 +6987,19 @@
         <v>731958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>715732</v>
+        <v>716273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>748082</v>
+        <v>746075</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8849619610984246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8653437452650372</v>
+        <v>0.8659977262484109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9044562714279486</v>
+        <v>0.9020291593681075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1640</v>
@@ -7008,19 +7008,19 @@
         <v>1242364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1219620</v>
+        <v>1217200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1264935</v>
+        <v>1262520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8911694863154925</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8748548207646816</v>
+        <v>0.8731184915418533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.907360243210793</v>
+        <v>0.9056275875910382</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>33346</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18983</v>
+        <v>19091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56576</v>
+        <v>54576</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1410482670623533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08029477665294686</v>
+        <v>0.08075275741173858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2393070906177873</v>
+        <v>0.2308491046366548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -7133,19 +7133,19 @@
         <v>66663</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52463</v>
+        <v>52877</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82534</v>
+        <v>83328</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07937564982328486</v>
+        <v>0.07937564982328485</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06246814449021201</v>
+        <v>0.06296133334657927</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09827343566456542</v>
+        <v>0.09921879546648434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -7154,19 +7154,19 @@
         <v>100009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80623</v>
+        <v>79166</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128001</v>
+        <v>127226</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09292299488931748</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07491063593550913</v>
+        <v>0.07355693192736029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1189321279920037</v>
+        <v>0.1182121446340021</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>203070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179840</v>
+        <v>181840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217433</v>
+        <v>217325</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8589517329376467</v>
+        <v>0.8589517329376466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7606929093822125</v>
+        <v>0.7691508953633454</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.919705223347053</v>
+        <v>0.9192472425882616</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1061</v>
@@ -7204,19 +7204,19 @@
         <v>773175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>757304</v>
+        <v>756510</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>787375</v>
+        <v>786961</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9206243501767152</v>
+        <v>0.920624350176715</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9017265643354346</v>
+        <v>0.9007812045335157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9375318555097881</v>
+        <v>0.9370386666534212</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1156</v>
@@ -7225,19 +7225,19 @@
         <v>976245</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>948253</v>
+        <v>949028</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>995631</v>
+        <v>997088</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9070770051106823</v>
+        <v>0.9070770051106825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8810678720079964</v>
+        <v>0.881787855365998</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.925089364064491</v>
+        <v>0.9264430680726398</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>335271</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>295944</v>
+        <v>299837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>376357</v>
+        <v>376308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09755747342085658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08611415824539473</v>
+        <v>0.0872469038554651</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1095127993026053</v>
+        <v>0.1094986335819971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>603</v>
@@ -7350,19 +7350,19 @@
         <v>423932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>390981</v>
+        <v>391921</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>456681</v>
+        <v>460690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1171710934484609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1080638614601047</v>
+        <v>0.1083234772922803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1262228106284784</v>
+        <v>0.1273307675430058</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>898</v>
@@ -7371,19 +7371,19 @@
         <v>759202</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>705655</v>
+        <v>706398</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>808197</v>
+        <v>813895</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1076164638172402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1000261818123696</v>
+        <v>0.100131438728302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1145613753366685</v>
+        <v>0.1153691692658447</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3101376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3060290</v>
+        <v>3060339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3140703</v>
+        <v>3136810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9024425265791435</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8904872006973947</v>
+        <v>0.8905013664180031</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9138858417546051</v>
+        <v>0.9127530961445349</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4621</v>
@@ -7421,19 +7421,19 @@
         <v>3194126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3161377</v>
+        <v>3157368</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3227077</v>
+        <v>3226137</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8828289065515392</v>
+        <v>0.8828289065515391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8737771893715216</v>
+        <v>0.8726692324569942</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8919361385398955</v>
+        <v>0.8916765227077199</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7620</v>
@@ -7442,19 +7442,19 @@
         <v>6295503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6246508</v>
+        <v>6240810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6349050</v>
+        <v>6348307</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8923835361827596</v>
+        <v>0.8923835361827598</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8854386246633317</v>
+        <v>0.8846308307341552</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8999738181876303</v>
+        <v>0.8998685612716977</v>
       </c>
     </row>
     <row r="24">
